--- a/excel_test/test_write.xlsx
+++ b/excel_test/test_write.xlsx
@@ -2,33 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="150" yWindow="570" windowWidth="20175" windowHeight="8775" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chart" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_write_rename" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -128,15 +122,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</chartsheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,4 +405,22 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>